--- a/biology/Médecine/Nancy_Coover_Andreasen/Nancy_Coover_Andreasen.xlsx
+++ b/biology/Médecine/Nancy_Coover_Andreasen/Nancy_Coover_Andreasen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nancy Coover Andreasen, née le 11 novembre 1938 à Lincoln, Nebraska, est un médecin et une neuroscientifique américaine. 
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle obtient son diplôme de littérature et d'anglais à l'université du Nebraska. Elle bénéficie d'une bourse d'études pour poursuivre ses études à Harvard et à Oxford, où elle obtient son doctorat de littérature anglaise. Elle enseigne la littérature de la Renaissance au département d'anglais de l'université de l'Iowa pendant 5 ans. Elle est spécialiste du poète anglais John Donne[1].
-Elle entreprend ensuite des études de médecine[2],[3] à la faculté de médecine de l'université de l'Iowa où elle obtient son diplôme en 1970 puis elle fait son internat en psychiatrie en 1973.
-En 1974, elle mène une recherche empirique sur le lien entre la créativité et de la psychose maniaco-dépressive[4],[5].
-Nancy Andreasen est une pionnière de l'utilisation de la neuro-imagerie dans les maladies mentales graves, et a publié la première étude quantitative de l'imagerie par résonance magnétique appliquée aux anomalies observables dans la schizophrénie[6]. Elle a dirigé le centre de recherche clinique de santé mentale de l'Iowa et le consortium de neuro-imagerie de cet État[7].
-Elle est rédactrice en chef de l'American Journal of Psychiatry pendant 13 ans, jusqu'en 2006[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle obtient son diplôme de littérature et d'anglais à l'université du Nebraska. Elle bénéficie d'une bourse d'études pour poursuivre ses études à Harvard et à Oxford, où elle obtient son doctorat de littérature anglaise. Elle enseigne la littérature de la Renaissance au département d'anglais de l'université de l'Iowa pendant 5 ans. Elle est spécialiste du poète anglais John Donne.
+Elle entreprend ensuite des études de médecine, à la faculté de médecine de l'université de l'Iowa où elle obtient son diplôme en 1970 puis elle fait son internat en psychiatrie en 1973.
+En 1974, elle mène une recherche empirique sur le lien entre la créativité et de la psychose maniaco-dépressive,.
+Nancy Andreasen est une pionnière de l'utilisation de la neuro-imagerie dans les maladies mentales graves, et a publié la première étude quantitative de l'imagerie par résonance magnétique appliquée aux anomalies observables dans la schizophrénie. Elle a dirigé le centre de recherche clinique de santé mentale de l'Iowa et le consortium de neuro-imagerie de cet État.
+Elle est rédactrice en chef de l'American Journal of Psychiatry pendant 13 ans, jusqu'en 2006.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Understanding mental illness: A layman's guide
 John Donne: Conservative Revolutionary, 1967
@@ -580,7 +596,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2000 : National Medal of Science, décernée par le président Clinton
 Membre de l'Académie américaine des arts et des sciences</t>
